--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3898.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3898.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.783514211321351</v>
+        <v>1.399145483970642</v>
       </c>
       <c r="B1">
-        <v>1.897991748948977</v>
+        <v>2.47265100479126</v>
       </c>
       <c r="C1">
-        <v>2.158872705557604</v>
+        <v>4.365824699401855</v>
       </c>
       <c r="D1">
-        <v>3.395115150838486</v>
+        <v>4.44134521484375</v>
       </c>
       <c r="E1">
-        <v>4.990034351996793</v>
+        <v>1.486837863922119</v>
       </c>
     </row>
   </sheetData>
